--- a/biology/Zoologie/Hylobius_carbo/Hylobius_carbo.xlsx
+++ b/biology/Zoologie/Hylobius_carbo/Hylobius_carbo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylobius carbo est une espèce fossile d'insectes coléoptères de la famille des Curculionidae.
 </t>
@@ -511,12 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hylobius carbo est décrite en 1874 par le zoologiste français Émile Oustalet (1844-1905)[1],[2].
-Fossiles
-Selon Paleobiology Database en 2023, deux collections de l'Oligocène de France sont référencées[2] : une de Céreste et une d'Aix-en-Provence[2]. 
-Les échantillons de Céreste sont F12+30, 27, 85, 94 viennent de la collection Fliche, enseignant la botanique à l'École nationale des eaux et forêts de Nancy[3] et sont du gisement éocène de Céreste[3], dans les Alpes-de-Haute-Provence, dans la réserve naturelle géologique du Luberon, gérée par le parc naturel régional du Luberon. Les échantillons se trouvent dans les calcaires en plaquettes "supérieurs" du bassin d'Apt-Forcalquier[4],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hylobius carbo est décrite en 1874 par le zoologiste français Émile Oustalet (1844-1905),.
 </t>
         </is>
       </c>
@@ -542,14 +553,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, deux collections de l'Oligocène de France sont référencées : une de Céreste et une d'Aix-en-Provence. 
+Les échantillons de Céreste sont F12+30, 27, 85, 94 viennent de la collection Fliche, enseignant la botanique à l'École nationale des eaux et forêts de Nancy et sont du gisement éocène de Céreste, dans les Alpes-de-Haute-Provence, dans la réserve naturelle géologique du Luberon, gérée par le parc naturel régional du Luberon. Les échantillons se trouvent dans les calcaires en plaquettes "supérieurs" du bassin d'Apt-Forcalquier,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hylobius_carbo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hylobius_carbo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Dimensions
-« Ces formes atteignent une taille de 6,5 mm, donc légèrement supérieure à celle de l'espèce type d'Aix. »[4].
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Ces formes atteignent une taille de 6,5 mm, donc légèrement supérieure à celle de l'espèce type d'Aix. ».
 </t>
         </is>
       </c>
